--- a/fastqFiles/fastq_2550.xlsx
+++ b/fastqFiles/fastq_2550.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
